--- a/output/resultado_holerite.xlsx
+++ b/output/resultado_holerite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Ano</t>
   </si>
@@ -148,13 +148,13 @@
     <t>06/2012</t>
   </si>
   <si>
+    <t>07/2012</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
     <t>0,00</t>
-  </si>
-  <si>
-    <t>07/2012</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -1000,32 +1000,42 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/output/resultado_holerite.xlsx
+++ b/output/resultado_holerite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Ano</t>
   </si>
@@ -139,22 +139,19 @@
     <t>06</t>
   </si>
   <si>
+    <t>338</t>
+  </si>
+  <si>
     <t>07</t>
   </si>
   <si>
+    <t>339</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
-    <t>06/2012</t>
-  </si>
-  <si>
-    <t>07/2012</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>0,00</t>
+    <t>341</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -664,378 +661,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1">
-        <v>167</v>
-      </c>
-      <c r="D2" s="1">
-        <v>587.84</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45.66</v>
-      </c>
-      <c r="F2" s="1">
-        <v>160.72</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>31.68</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7.35</v>
-      </c>
-      <c r="J2" s="1">
-        <v>25.87</v>
-      </c>
-      <c r="K2" s="1">
-        <v>14.66</v>
-      </c>
-      <c r="L2" s="1">
-        <v>103.21</v>
-      </c>
-      <c r="M2" s="1">
-        <v>29.26</v>
-      </c>
-      <c r="N2" s="1">
-        <v>205.99</v>
-      </c>
-      <c r="O2" s="1">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1">
-        <v>89.22</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>18.66</v>
-      </c>
-      <c r="R2" s="1">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1">
-        <v>132.78</v>
-      </c>
-      <c r="T2" s="1">
-        <v>12.83</v>
-      </c>
-      <c r="U2" s="1">
-        <v>11</v>
-      </c>
-      <c r="V2" s="1">
-        <v>4.73</v>
-      </c>
-      <c r="W2" s="1">
-        <v>5.34</v>
-      </c>
-      <c r="X2" s="1">
-        <v>51.26</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>38.12</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>7.74</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1115.31</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>730.63</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>861.53</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>1115.31</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>89.22</v>
-      </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1">
-        <v>174.33</v>
-      </c>
-      <c r="D3" s="1">
-        <v>657.22</v>
-      </c>
-      <c r="E3" s="1">
-        <v>38.33</v>
-      </c>
-      <c r="F3" s="1">
-        <v>144.5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>33.93</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5.38</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20.28</v>
-      </c>
-      <c r="K3" s="1">
-        <v>14.66</v>
-      </c>
-      <c r="L3" s="1">
-        <v>110.54</v>
-      </c>
-      <c r="M3" s="1">
-        <v>21.99</v>
-      </c>
-      <c r="N3" s="1">
-        <v>165.8</v>
-      </c>
-      <c r="O3" s="1">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1">
-        <v>114.72</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>16.32</v>
-      </c>
-      <c r="R3" s="1">
-        <v>10</v>
-      </c>
-      <c r="S3" s="1">
-        <v>154.12</v>
-      </c>
-      <c r="T3" s="1">
-        <v>12.83</v>
-      </c>
-      <c r="U3" s="1">
-        <v>24</v>
-      </c>
-      <c r="V3" s="1">
-        <v>11.04</v>
-      </c>
-      <c r="W3" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="X3" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>81.32</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>8.29</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1274.66</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>693.81</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>995.38</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>1274.66</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>101.97</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>64.32</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>78.07</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>142.39</v>
-      </c>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1">
-        <v>659.75</v>
-      </c>
-      <c r="E4" s="1">
-        <v>38.33</v>
-      </c>
-      <c r="F4" s="1">
-        <v>144.5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1">
-        <v>33.93</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.16</v>
-      </c>
-      <c r="J4" s="1">
-        <v>15.68</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>21.99</v>
-      </c>
-      <c r="N4" s="1">
-        <v>165.8</v>
-      </c>
-      <c r="O4" s="1">
-        <v>8</v>
-      </c>
-      <c r="P4" s="1">
-        <v>92.86</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>16.26</v>
-      </c>
-      <c r="R4" s="1">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1">
-        <v>154.12</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1">
-        <v>18</v>
-      </c>
-      <c r="V4" s="1">
-        <v>8.28</v>
-      </c>
-      <c r="W4" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="X4" s="1">
-        <v>84.5</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>42.92</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>8.29</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1160.72</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1345.77</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>903.3</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1160.72</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>92.86</v>
-      </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1">
-        <v>22.01</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>141.06</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C4" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/output/resultado_holerite.xlsx
+++ b/output/resultado_holerite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Ano</t>
   </si>
@@ -133,25 +133,37 @@
     <t>(M200) Pagamento de PIS QUANTIDADE</t>
   </si>
   <si>
+    <t>06/2012</t>
+  </si>
+  <si>
+    <t>174,33</t>
+  </si>
+  <si>
+    <t>657,22</t>
+  </si>
+  <si>
+    <t>38,33</t>
+  </si>
+  <si>
+    <t>144,50</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>07/2012</t>
+  </si>
+  <si>
+    <t>175,00</t>
+  </si>
+  <si>
+    <t>659,75</t>
+  </si>
+  <si>
     <t>2012</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
     <t>08</t>
-  </si>
-  <si>
-    <t>341</t>
   </si>
 </sst>
 </file>
@@ -661,7 +673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -671,27 +683,144 @@
       <c r="C2" t="s">
         <v>42</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>175</v>
+      </c>
+      <c r="D4" s="1">
+        <v>659.75</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38.33</v>
+      </c>
+      <c r="F4" s="1">
+        <v>144.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>33.93</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.16</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15.68</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>21.99</v>
+      </c>
+      <c r="N4" s="1">
+        <v>165.8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>92.86</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>16.26</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>154.12</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
+        <v>18</v>
+      </c>
+      <c r="V4" s="1">
+        <v>8.28</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="X4" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>42.92</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>8.29</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1160.72</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1345.77</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>903.3</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1160.72</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>92.86</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1">
+        <v>22.01</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>141.06</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/output/resultado_holerite.xlsx
+++ b/output/resultado_holerite.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>Ano</t>
   </si>
@@ -136,21 +136,210 @@
     <t>06/2012</t>
   </si>
   <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>Horas Normais</t>
+  </si>
+  <si>
     <t>174,33</t>
   </si>
   <si>
     <t>657,22</t>
   </si>
   <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>Desc. Semanal Remunerado</t>
+  </si>
+  <si>
     <t>38,33</t>
   </si>
   <si>
     <t>144,50</t>
   </si>
   <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>Dif.Reaj.Salário Mai</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>64,32</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>Dif.Reaj.Salário Jun</t>
+  </si>
+  <si>
+    <t>78,07</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Auxílio Doença</t>
+  </si>
+  <si>
     <t>9,00</t>
   </si>
   <si>
+    <t>33,93</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>Integração Médias D.S.R.</t>
+  </si>
+  <si>
+    <t>5,38</t>
+  </si>
+  <si>
+    <t>20,28</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>Horas Extras 100%</t>
+  </si>
+  <si>
+    <t>14,66</t>
+  </si>
+  <si>
+    <t>110,54</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>Hs.Extras 100% Dom/Fer</t>
+  </si>
+  <si>
+    <t>21,99</t>
+  </si>
+  <si>
+    <t>165,80</t>
+  </si>
+  <si>
+    <t>/314</t>
+  </si>
+  <si>
+    <t>INSS - Remuneração</t>
+  </si>
+  <si>
+    <t>114,72</t>
+  </si>
+  <si>
+    <t>5020</t>
+  </si>
+  <si>
+    <t>Adiantamento Salarial</t>
+  </si>
+  <si>
+    <t>142,39</t>
+  </si>
+  <si>
+    <t>5260</t>
+  </si>
+  <si>
+    <t>Energia Elétrica</t>
+  </si>
+  <si>
+    <t>16,32</t>
+  </si>
+  <si>
+    <t>5270</t>
+  </si>
+  <si>
+    <t>Mensalid. BarracredCosan</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>5280</t>
+  </si>
+  <si>
+    <t>Financiam. BarracredCosan</t>
+  </si>
+  <si>
+    <t>154,12</t>
+  </si>
+  <si>
+    <t>5360</t>
+  </si>
+  <si>
+    <t>Promoção Páscoa</t>
+  </si>
+  <si>
+    <t>12,83</t>
+  </si>
+  <si>
+    <t>5378</t>
+  </si>
+  <si>
+    <t>Refeição IND</t>
+  </si>
+  <si>
+    <t>24,00</t>
+  </si>
+  <si>
+    <t>11,04</t>
+  </si>
+  <si>
+    <t>5393</t>
+  </si>
+  <si>
+    <t>Seguro de Vida Zanin</t>
+  </si>
+  <si>
+    <t>5,72</t>
+  </si>
+  <si>
+    <t>5430</t>
+  </si>
+  <si>
+    <t>Convênio Farmácia</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>Sta Casa de NSRA.Benefic.</t>
+  </si>
+  <si>
+    <t>81,32</t>
+  </si>
+  <si>
+    <t>M502</t>
+  </si>
+  <si>
+    <t>Contribuição Confederat.</t>
+  </si>
+  <si>
+    <t>8,29</t>
+  </si>
+  <si>
+    <t>M503</t>
+  </si>
+  <si>
+    <t>Mensalidade Sindical</t>
+  </si>
+  <si>
+    <t>14,00</t>
+  </si>
+  <si>
     <t>07/2012</t>
   </si>
   <si>
@@ -160,10 +349,52 @@
     <t>659,75</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>08</t>
+    <t>4,16</t>
+  </si>
+  <si>
+    <t>15,68</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>Horas Extras 70%</t>
+  </si>
+  <si>
+    <t>22,01</t>
+  </si>
+  <si>
+    <t>141,06</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>Pagamento de PIS</t>
+  </si>
+  <si>
+    <t>622,00</t>
+  </si>
+  <si>
+    <t>8,00</t>
+  </si>
+  <si>
+    <t>92,86</t>
+  </si>
+  <si>
+    <t>16,26</t>
+  </si>
+  <si>
+    <t>18,00</t>
+  </si>
+  <si>
+    <t>8,28</t>
+  </si>
+  <si>
+    <t>84,50</t>
+  </si>
+  <si>
+    <t>42,92</t>
   </si>
 </sst>
 </file>
@@ -545,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -673,7 +904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -689,138 +920,617 @@
       <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1">
-        <v>659.75</v>
-      </c>
-      <c r="E4" s="1">
-        <v>38.33</v>
-      </c>
-      <c r="F4" s="1">
-        <v>144.5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1">
-        <v>33.93</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4.16</v>
-      </c>
-      <c r="J4" s="1">
-        <v>15.68</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>21.99</v>
-      </c>
-      <c r="N4" s="1">
-        <v>165.8</v>
-      </c>
-      <c r="O4" s="1">
-        <v>8</v>
-      </c>
-      <c r="P4" s="1">
-        <v>92.86</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>16.26</v>
-      </c>
-      <c r="R4" s="1">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1">
-        <v>154.12</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1">
-        <v>18</v>
-      </c>
-      <c r="V4" s="1">
-        <v>8.28</v>
-      </c>
-      <c r="W4" s="1">
-        <v>5.72</v>
-      </c>
-      <c r="X4" s="1">
-        <v>84.5</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>42.92</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>8.29</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1160.72</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>1345.77</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>903.3</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1160.72</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>92.86</v>
-      </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1">
-        <v>22.01</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>141.06</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>622</v>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/output/resultado_holerite.xlsx
+++ b/output/resultado_holerite.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="24000"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Exemplo-Holerite-01" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,126 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Mês</t>
-  </si>
-  <si>
-    <t>(0020) Horas Normais QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(0020) Horas Normais VALOR</t>
-  </si>
-  <si>
-    <t>(0060) Desc. Semanal Remunerado QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(0060) Desc. Semanal Remunerado VALOR</t>
-  </si>
-  <si>
-    <t>(1000) Auxílio Doença QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(1000) Auxílio Doença VALOR</t>
-  </si>
-  <si>
-    <t>(1510) Integração Médias D.S.R. QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(1510) Integração Médias D.S.R. VALOR</t>
-  </si>
-  <si>
-    <t>(1550) Horas Extras 100% QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(1550) Horas Extras 100% VALOR</t>
-  </si>
-  <si>
-    <t>(1554) Hs.Extras 100% Dom/Fer QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(1554) Hs.Extras 100% Dom/Fer VALOR</t>
-  </si>
-  <si>
-    <t>(/314) INSS Remuneração QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(/314) INSS Remuneração VALOR</t>
-  </si>
-  <si>
-    <t>(5260) Energia Elétrica QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5270) Mensalid. BarracredCosan QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5280) Financiam. BarracredCosan QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5360) Promoção Páscoa QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5378) Refeição IND QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5378) Refeição IND VALOR</t>
-  </si>
-  <si>
-    <t>(5393) Seguro de Vida Zanin QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5430) Convênio Farmácia QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5716) Sta Casa de NSRA.Benefic. QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(M502) Contribuição Confederat. QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(M503) Mensalidade Sindical QUANTIDADE</t>
-  </si>
-  <si>
-    <t>13º Salário Antecipado em Férias</t>
-  </si>
-  <si>
-    <t>Saldo Devedor</t>
-  </si>
-  <si>
-    <t>Base Cálculo INSS</t>
-  </si>
-  <si>
-    <t>Líquido a Receber</t>
-  </si>
-  <si>
-    <t>Base Cálculo IRRF</t>
-  </si>
-  <si>
-    <t>Base Cálculo FGTS</t>
-  </si>
-  <si>
-    <t>FGTS a ser Depositado</t>
-  </si>
-  <si>
-    <t>(0043) Dif.Reaj.Salário Mai QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(0044) Dif.Reaj.Salário Jun QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(5020) Adiantamento Salarial QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(1540) Horas Extras 70% QUANTIDADE</t>
-  </si>
-  <si>
-    <t>(1540) Horas Extras 70% VALOR</t>
-  </si>
-  <si>
-    <t>(M200) Pagamento de PIS QUANTIDADE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="113">
+  <si>
+    <t>Data(Mês / Ano)</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Qtde.</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
   <si>
     <t>06/2012</t>
@@ -142,18 +40,189 @@
     <t>Horas Normais</t>
   </si>
   <si>
+    <t>167,00</t>
+  </si>
+  <si>
+    <t>587,84</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>Desc. Semanal Remunerado</t>
+  </si>
+  <si>
+    <t>45,66</t>
+  </si>
+  <si>
+    <t>160,72</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Auxílio Doença</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>31,68</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>Integração Médias D.S.R.</t>
+  </si>
+  <si>
+    <t>7,35</t>
+  </si>
+  <si>
+    <t>25,87</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>Horas Extras 100%</t>
+  </si>
+  <si>
+    <t>14,66</t>
+  </si>
+  <si>
+    <t>103,21</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>Hs.Extras 100% Dom/Fer</t>
+  </si>
+  <si>
+    <t>29,26</t>
+  </si>
+  <si>
+    <t>205,99</t>
+  </si>
+  <si>
+    <t>/314</t>
+  </si>
+  <si>
+    <t>INSS - Remuneração</t>
+  </si>
+  <si>
+    <t>8,00</t>
+  </si>
+  <si>
+    <t>89,22</t>
+  </si>
+  <si>
+    <t>5260</t>
+  </si>
+  <si>
+    <t>Energia Elétrica</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>18,66</t>
+  </si>
+  <si>
+    <t>5270</t>
+  </si>
+  <si>
+    <t>Mensalid. BarracredCosan</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>5280</t>
+  </si>
+  <si>
+    <t>Financiam. BarracredCosan</t>
+  </si>
+  <si>
+    <t>132,78</t>
+  </si>
+  <si>
+    <t>5360</t>
+  </si>
+  <si>
+    <t>Promoção Páscoa</t>
+  </si>
+  <si>
+    <t>12,83</t>
+  </si>
+  <si>
+    <t>5378</t>
+  </si>
+  <si>
+    <t>Refeição IND</t>
+  </si>
+  <si>
+    <t>11,00</t>
+  </si>
+  <si>
+    <t>4,73</t>
+  </si>
+  <si>
+    <t>5393</t>
+  </si>
+  <si>
+    <t>Seguro de Vida Zanin</t>
+  </si>
+  <si>
+    <t>5,34</t>
+  </si>
+  <si>
+    <t>5430</t>
+  </si>
+  <si>
+    <t>Convênio Farmácia</t>
+  </si>
+  <si>
+    <t>51,26</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>Sta Casa de NSRA.Benefic.</t>
+  </si>
+  <si>
+    <t>38,12</t>
+  </si>
+  <si>
+    <t>M502</t>
+  </si>
+  <si>
+    <t>Contribuição Confederat.</t>
+  </si>
+  <si>
+    <t>7,74</t>
+  </si>
+  <si>
+    <t>M503</t>
+  </si>
+  <si>
+    <t>Mensalidade Sindical</t>
+  </si>
+  <si>
+    <t>14,00</t>
+  </si>
+  <si>
+    <t>07/2012</t>
+  </si>
+  <si>
     <t>174,33</t>
   </si>
   <si>
     <t>657,22</t>
   </si>
   <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>Desc. Semanal Remunerado</t>
-  </si>
-  <si>
     <t>38,33</t>
   </si>
   <si>
@@ -166,9 +235,6 @@
     <t>Dif.Reaj.Salário Mai</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>64,32</t>
   </si>
   <si>
@@ -181,60 +247,24 @@
     <t>78,07</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Auxílio Doença</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
     <t>33,93</t>
   </si>
   <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>Integração Médias D.S.R.</t>
-  </si>
-  <si>
     <t>5,38</t>
   </si>
   <si>
     <t>20,28</t>
   </si>
   <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>Horas Extras 100%</t>
-  </si>
-  <si>
-    <t>14,66</t>
-  </si>
-  <si>
     <t>110,54</t>
   </si>
   <si>
-    <t>1554</t>
-  </si>
-  <si>
-    <t>Hs.Extras 100% Dom/Fer</t>
-  </si>
-  <si>
     <t>21,99</t>
   </si>
   <si>
     <t>165,80</t>
   </si>
   <si>
-    <t>/314</t>
-  </si>
-  <si>
-    <t>INSS - Remuneração</t>
-  </si>
-  <si>
     <t>114,72</t>
   </si>
   <si>
@@ -247,100 +277,31 @@
     <t>142,39</t>
   </si>
   <si>
-    <t>5260</t>
-  </si>
-  <si>
-    <t>Energia Elétrica</t>
-  </si>
-  <si>
     <t>16,32</t>
   </si>
   <si>
-    <t>5270</t>
-  </si>
-  <si>
-    <t>Mensalid. BarracredCosan</t>
-  </si>
-  <si>
-    <t>10,00</t>
-  </si>
-  <si>
-    <t>5280</t>
-  </si>
-  <si>
-    <t>Financiam. BarracredCosan</t>
-  </si>
-  <si>
     <t>154,12</t>
   </si>
   <si>
-    <t>5360</t>
-  </si>
-  <si>
-    <t>Promoção Páscoa</t>
-  </si>
-  <si>
-    <t>12,83</t>
-  </si>
-  <si>
-    <t>5378</t>
-  </si>
-  <si>
-    <t>Refeição IND</t>
-  </si>
-  <si>
     <t>24,00</t>
   </si>
   <si>
     <t>11,04</t>
   </si>
   <si>
-    <t>5393</t>
-  </si>
-  <si>
-    <t>Seguro de Vida Zanin</t>
-  </si>
-  <si>
     <t>5,72</t>
   </si>
   <si>
-    <t>5430</t>
-  </si>
-  <si>
-    <t>Convênio Farmácia</t>
-  </si>
-  <si>
     <t>10,10</t>
   </si>
   <si>
-    <t>5716</t>
-  </si>
-  <si>
-    <t>Sta Casa de NSRA.Benefic.</t>
-  </si>
-  <si>
     <t>81,32</t>
   </si>
   <si>
-    <t>M502</t>
-  </si>
-  <si>
-    <t>Contribuição Confederat.</t>
-  </si>
-  <si>
     <t>8,29</t>
   </si>
   <si>
-    <t>M503</t>
-  </si>
-  <si>
-    <t>Mensalidade Sindical</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>07/2012</t>
+    <t>08/2012</t>
   </si>
   <si>
     <t>175,00</t>
@@ -374,9 +335,6 @@
   </si>
   <si>
     <t>622,00</t>
-  </si>
-  <si>
-    <t>8,00</t>
   </si>
   <si>
     <t>92,86</t>
@@ -776,11 +734,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -798,741 +765,961 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
         <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
         <v>109</v>
       </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="E38" t="s">
-        <v>108</v>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>